--- a/public/template/template_general.xlsx
+++ b/public/template/template_general.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20401"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vandi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming Activity\Project Sampingan\Php\super-agregator\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B51529-EB91-4DCB-9BBA-FC2C1872F556}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7714F93D-1988-474F-A4CC-0EE5B33E3E6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38670" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>reporting_period</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>channel_name</t>
+  </si>
+  <si>
+    <t>channel name</t>
   </si>
 </sst>
 </file>
@@ -417,24 +423,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -448,25 +455,28 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -480,21 +490,24 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>20000</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>20</v>
       </c>
     </row>

--- a/public/template/template_general.xlsx
+++ b/public/template/template_general.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming Activity\Project Sampingan\Php\super-agregator\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7714F93D-1988-474F-A4CC-0EE5B33E3E6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4454A8-F7B6-4C59-909A-282285FD0AF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38670" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38670" windowHeight="11450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>2023-06-08</t>
   </si>
   <si>
-    <t>seeder platform 1</t>
-  </si>
-  <si>
     <t>seeder label name 1</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t>channel name</t>
+  </si>
+  <si>
+    <t>Apple Music iTunes</t>
   </si>
 </sst>
 </file>
@@ -426,24 +426,24 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -455,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -484,25 +484,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="J2" s="1">
         <v>20000</v>
@@ -512,6 +512,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Platform" prompt="Choose Platform From List" sqref="C2" xr:uid="{E4A3DEB3-37FC-4B1D-96DB-D89F76809C8B}">
+      <formula1>"Amazon Prime,Apple Music iTunes,Facebook,Resso,Deezer,Joox,Langit Musik,Uma,Amazon Music,Nuuday,Tidal,Youtube Shorts,Tiktok Douyin,Snap,QQMusic,Kuwo,Kugou,Youtube Music"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/template/template_general.xlsx
+++ b/public/template/template_general.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20402"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming Activity\Project Sampingan\Php\super-agregator\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming Activity\Project Sampingan\Php\master-music\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4454A8-F7B6-4C59-909A-282285FD0AF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFE307E-367A-47CD-BB86-DDBF8F14F235}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38670" windowHeight="11450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38670" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t>reporting_period</t>
-  </si>
-  <si>
     <t>platform</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>revenue</t>
   </si>
   <si>
-    <t>2023-06-08</t>
-  </si>
-  <si>
     <t>seeder label name 1</t>
   </si>
   <si>
@@ -77,6 +71,12 @@
   </si>
   <si>
     <t>Apple Music iTunes</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>sales_type</t>
   </si>
 </sst>
 </file>
@@ -423,27 +423,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -452,10 +451,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -473,47 +472,50 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
+      <c r="I2" s="1">
+        <v>20000</v>
       </c>
       <c r="J2" s="1">
-        <v>20000</v>
-      </c>
-      <c r="K2" s="1">
         <v>20</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Platform" prompt="Choose Platform From List" sqref="C2" xr:uid="{E4A3DEB3-37FC-4B1D-96DB-D89F76809C8B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Platform" prompt="Choose Platform From List" sqref="B2" xr:uid="{E4A3DEB3-37FC-4B1D-96DB-D89F76809C8B}">
       <formula1>"Amazon Prime,Apple Music iTunes,Facebook,Resso,Deezer,Joox,Langit Musik,Uma,Amazon Music,Nuuday,Tidal,Youtube Shorts,Tiktok Douyin,Snap,QQMusic,Kuwo,Kugou,Youtube Music"</formula1>
     </dataValidation>
   </dataValidations>
